--- a/migforecasting/cities11-12/0/d5.xlsx
+++ b/migforecasting/cities11-12/0/d5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities11-12\0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="220">
   <si>
     <t>2011</t>
   </si>
@@ -264,19 +264,6 @@
   </si>
   <si>
     <t>4,8</t>
-  </si>
-  <si>
-    <t>Численность детей, стоящих на учете для определения 
-в дошкольные образовательные организации2), человек</t>
-  </si>
-  <si>
-    <t>6885</t>
-  </si>
-  <si>
-    <t>6925</t>
-  </si>
-  <si>
-    <t>6973</t>
   </si>
   <si>
     <t>Численность врачей2), человек:</t>
@@ -1076,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,16 +1088,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1510,21 +1497,21 @@
       <c r="B27" t="s">
         <v>81</v>
       </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1552,22 +1539,22 @@
       <c r="B30" t="s">
         <v>90</v>
       </c>
-      <c r="C30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1578,13 +1565,13 @@
         <v>86</v>
       </c>
       <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
         <v>95</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>96</v>
-      </c>
-      <c r="E32" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1592,16 +1579,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
         <v>98</v>
       </c>
       <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
         <v>99</v>
-      </c>
-      <c r="E33" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1609,16 +1596,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1626,7 +1604,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1634,16 +1621,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" t="s">
         <v>105</v>
-      </c>
-      <c r="C36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1651,7 +1638,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
         <v>107</v>
@@ -1670,22 +1657,22 @@
       <c r="B38" t="s">
         <v>110</v>
       </c>
-      <c r="C38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1693,16 +1680,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" t="s">
         <v>115</v>
-      </c>
-      <c r="D40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1710,7 +1697,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
         <v>117</v>
@@ -1747,13 +1734,13 @@
         <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1761,13 +1748,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E44" t="s">
         <v>128</v>
@@ -1832,13 +1819,13 @@
         <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1846,13 +1833,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E49" t="s">
         <v>145</v>
@@ -1866,13 +1853,13 @@
         <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1880,16 +1867,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" t="s">
-        <v>150</v>
-      </c>
-      <c r="E51" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1897,7 +1875,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="C52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1905,13 +1892,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" t="s">
         <v>152</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>153</v>
-      </c>
-      <c r="D53" t="s">
-        <v>154</v>
       </c>
       <c r="E53" t="s">
         <v>154</v>
@@ -1931,7 +1918,7 @@
         <v>157</v>
       </c>
       <c r="E54" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1939,16 +1926,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
-      </c>
-      <c r="C55" t="s">
-        <v>160</v>
-      </c>
-      <c r="D55" t="s">
-        <v>161</v>
-      </c>
-      <c r="E55" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1956,7 +1934,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1964,16 +1951,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" t="s">
         <v>163</v>
-      </c>
-      <c r="D57" t="s">
-        <v>164</v>
-      </c>
-      <c r="E57" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1984,13 +1971,13 @@
         <v>155</v>
       </c>
       <c r="C58" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" t="s">
         <v>165</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>166</v>
-      </c>
-      <c r="E58" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1998,16 +1985,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E59" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2015,13 +2002,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E60" t="s">
         <v>171</v>
@@ -2034,21 +2021,21 @@
       <c r="B61" t="s">
         <v>172</v>
       </c>
-      <c r="C61" t="s">
-        <v>173</v>
-      </c>
-      <c r="D61" t="s">
-        <v>174</v>
-      </c>
-      <c r="E61" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2080,28 +2067,16 @@
         <v>182</v>
       </c>
       <c r="D64" t="s">
+        <v>182</v>
+      </c>
+      <c r="E64" t="s">
         <v>183</v>
-      </c>
-      <c r="E64" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
-        <v>185</v>
-      </c>
-      <c r="C65" t="s">
-        <v>186</v>
-      </c>
-      <c r="D65" t="s">
-        <v>186</v>
-      </c>
-      <c r="E65" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -2118,16 +2093,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D68" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E68" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2135,16 +2110,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C69" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D69" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E69" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2152,16 +2127,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E70" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2169,16 +2144,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C71" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D71" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E71" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2186,16 +2161,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C72" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D72" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E72" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2203,16 +2178,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D73" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E73" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2220,16 +2195,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C74" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D74" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E74" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2237,16 +2212,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C75" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D75" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E75" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2254,7 +2229,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2262,16 +2237,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C77" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D77" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E77" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2279,16 +2254,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E78" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2296,16 +2271,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C79" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D79" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E79" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
